--- a/stock_historical_data/1mo/STOVEKRAFT.NS.xlsx
+++ b/stock_historical_data/1mo/STOVEKRAFT.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B2" t="n">
-        <v>502.1499938964844</v>
+        <v>443.7294568815056</v>
       </c>
       <c r="C2" t="n">
-        <v>547.8499755859375</v>
+        <v>543.8926689272732</v>
       </c>
       <c r="D2" t="n">
-        <v>406.1000061035156</v>
+        <v>405.8379526983658</v>
       </c>
       <c r="E2" t="n">
-        <v>458.25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>458.25</v>
-      </c>
+        <v>496.3786926269531</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>5864747</v>
+        <v>11936065</v>
       </c>
       <c r="H2" t="n">
         <v>2021</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B3" t="n">
-        <v>462.6000061035156</v>
+        <v>502.1499938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>521</v>
+        <v>547.8499755859375</v>
       </c>
       <c r="D3" t="n">
-        <v>455.3999938964844</v>
+        <v>406.1000061035156</v>
       </c>
       <c r="E3" t="n">
-        <v>457.1499938964844</v>
+        <v>458.25</v>
       </c>
       <c r="F3" t="n">
-        <v>457.1499938964844</v>
+        <v>458.25</v>
       </c>
       <c r="G3" t="n">
-        <v>2368204</v>
+        <v>5864747</v>
       </c>
       <c r="H3" t="n">
         <v>2021</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B4" t="n">
-        <v>458</v>
+        <v>462.6000061035156</v>
       </c>
       <c r="C4" t="n">
-        <v>683.7000122070312</v>
+        <v>521</v>
       </c>
       <c r="D4" t="n">
-        <v>450.9500122070312</v>
+        <v>455.3999938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>603.5999755859375</v>
+        <v>457.1499938964844</v>
       </c>
       <c r="F4" t="n">
-        <v>603.5999755859375</v>
+        <v>457.1499938964844</v>
       </c>
       <c r="G4" t="n">
-        <v>7129495</v>
+        <v>2368204</v>
       </c>
       <c r="H4" t="n">
         <v>2021</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B5" t="n">
-        <v>609.4000244140625</v>
+        <v>458</v>
       </c>
       <c r="C5" t="n">
-        <v>786.6500244140625</v>
+        <v>683.7000122070312</v>
       </c>
       <c r="D5" t="n">
-        <v>547</v>
+        <v>450.9500122070312</v>
       </c>
       <c r="E5" t="n">
-        <v>734.8499755859375</v>
+        <v>603.5999755859375</v>
       </c>
       <c r="F5" t="n">
-        <v>734.8499755859375</v>
+        <v>603.5999755859375</v>
       </c>
       <c r="G5" t="n">
-        <v>5513952</v>
+        <v>7129495</v>
       </c>
       <c r="H5" t="n">
         <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B6" t="n">
-        <v>740</v>
+        <v>609.4000244140625</v>
       </c>
       <c r="C6" t="n">
-        <v>813.9000244140625</v>
+        <v>786.6500244140625</v>
       </c>
       <c r="D6" t="n">
-        <v>705.25</v>
+        <v>547</v>
       </c>
       <c r="E6" t="n">
-        <v>772.9500122070312</v>
+        <v>734.8499755859375</v>
       </c>
       <c r="F6" t="n">
-        <v>772.9500122070312</v>
+        <v>734.8499755859375</v>
       </c>
       <c r="G6" t="n">
-        <v>7517618</v>
+        <v>5513952</v>
       </c>
       <c r="H6" t="n">
         <v>2021</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B7" t="n">
-        <v>783.9000244140625</v>
+        <v>740</v>
       </c>
       <c r="C7" t="n">
-        <v>1017.700012207031</v>
+        <v>813.9000244140625</v>
       </c>
       <c r="D7" t="n">
-        <v>733.2000122070312</v>
+        <v>705.25</v>
       </c>
       <c r="E7" t="n">
-        <v>963.7999877929688</v>
+        <v>772.9500122070312</v>
       </c>
       <c r="F7" t="n">
-        <v>963.7999877929688</v>
+        <v>772.9500122070312</v>
       </c>
       <c r="G7" t="n">
-        <v>8552584</v>
+        <v>7517618</v>
       </c>
       <c r="H7" t="n">
         <v>2021</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B8" t="n">
-        <v>963</v>
+        <v>783.9000244140625</v>
       </c>
       <c r="C8" t="n">
-        <v>1067.699951171875</v>
+        <v>1017.700012207031</v>
       </c>
       <c r="D8" t="n">
-        <v>915</v>
+        <v>733.2000122070312</v>
       </c>
       <c r="E8" t="n">
-        <v>1025.650024414062</v>
+        <v>963.7999877929688</v>
       </c>
       <c r="F8" t="n">
-        <v>1025.650024414062</v>
+        <v>963.7999877929688</v>
       </c>
       <c r="G8" t="n">
-        <v>8931205</v>
+        <v>8552584</v>
       </c>
       <c r="H8" t="n">
         <v>2021</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B9" t="n">
-        <v>1023.849975585938</v>
+        <v>963</v>
       </c>
       <c r="C9" t="n">
-        <v>1133.699951171875</v>
+        <v>1067.699951171875</v>
       </c>
       <c r="D9" t="n">
-        <v>886.4000244140625</v>
+        <v>915</v>
       </c>
       <c r="E9" t="n">
-        <v>1025.400024414062</v>
+        <v>1025.650024414062</v>
       </c>
       <c r="F9" t="n">
-        <v>1025.400024414062</v>
+        <v>1025.650024414062</v>
       </c>
       <c r="G9" t="n">
-        <v>3260917</v>
+        <v>8931205</v>
       </c>
       <c r="H9" t="n">
         <v>2021</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B10" t="n">
-        <v>1030.949951171875</v>
+        <v>1023.849975585938</v>
       </c>
       <c r="C10" t="n">
-        <v>1085</v>
+        <v>1133.699951171875</v>
       </c>
       <c r="D10" t="n">
-        <v>911</v>
+        <v>886.4000244140625</v>
       </c>
       <c r="E10" t="n">
-        <v>951.5</v>
+        <v>1025.400024414062</v>
       </c>
       <c r="F10" t="n">
-        <v>951.5</v>
+        <v>1025.400024414062</v>
       </c>
       <c r="G10" t="n">
-        <v>1749435</v>
+        <v>3260917</v>
       </c>
       <c r="H10" t="n">
         <v>2021</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B11" t="n">
-        <v>958</v>
+        <v>1030.949951171875</v>
       </c>
       <c r="C11" t="n">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="D11" t="n">
-        <v>936.5499877929688</v>
+        <v>911</v>
       </c>
       <c r="E11" t="n">
-        <v>972.7999877929688</v>
+        <v>951.5</v>
       </c>
       <c r="F11" t="n">
-        <v>972.7999877929688</v>
+        <v>951.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1493735</v>
+        <v>1749435</v>
       </c>
       <c r="H11" t="n">
         <v>2021</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B12" t="n">
-        <v>1007.799987792969</v>
+        <v>958</v>
       </c>
       <c r="C12" t="n">
-        <v>1038.650024414062</v>
+        <v>1065</v>
       </c>
       <c r="D12" t="n">
-        <v>854.5</v>
+        <v>936.5499877929688</v>
       </c>
       <c r="E12" t="n">
-        <v>860.9500122070312</v>
+        <v>972.7999877929688</v>
       </c>
       <c r="F12" t="n">
-        <v>860.9500122070312</v>
+        <v>972.7999877929688</v>
       </c>
       <c r="G12" t="n">
-        <v>1407529</v>
+        <v>1493735</v>
       </c>
       <c r="H12" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B13" t="n">
-        <v>862.5499877929688</v>
+        <v>1007.799987792969</v>
       </c>
       <c r="C13" t="n">
-        <v>917.6500244140625</v>
+        <v>1038.650024414062</v>
       </c>
       <c r="D13" t="n">
-        <v>601.0999755859375</v>
+        <v>854.5</v>
       </c>
       <c r="E13" t="n">
-        <v>666.3499755859375</v>
+        <v>860.9500122070312</v>
       </c>
       <c r="F13" t="n">
-        <v>666.3499755859375</v>
+        <v>860.9500122070312</v>
       </c>
       <c r="G13" t="n">
-        <v>5768567</v>
+        <v>1407529</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B14" t="n">
+        <v>862.5499877929688</v>
+      </c>
+      <c r="C14" t="n">
+        <v>917.6500244140625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="E14" t="n">
         <v>666.3499755859375</v>
       </c>
-      <c r="C14" t="n">
-        <v>710.9000244140625</v>
-      </c>
-      <c r="D14" t="n">
-        <v>590.2999877929688</v>
-      </c>
-      <c r="E14" t="n">
-        <v>613.9500122070312</v>
-      </c>
       <c r="F14" t="n">
-        <v>613.9500122070312</v>
+        <v>666.3499755859375</v>
       </c>
       <c r="G14" t="n">
-        <v>5029372</v>
+        <v>5768567</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B15" t="n">
-        <v>617</v>
+        <v>666.3499755859375</v>
       </c>
       <c r="C15" t="n">
-        <v>683.4000244140625</v>
+        <v>710.9000244140625</v>
       </c>
       <c r="D15" t="n">
-        <v>615.2999877929688</v>
+        <v>590.2999877929688</v>
       </c>
       <c r="E15" t="n">
-        <v>634.7000122070312</v>
+        <v>613.9500122070312</v>
       </c>
       <c r="F15" t="n">
-        <v>634.7000122070312</v>
+        <v>613.9500122070312</v>
       </c>
       <c r="G15" t="n">
-        <v>2404784</v>
+        <v>5029372</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B16" t="n">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C16" t="n">
-        <v>635.1500244140625</v>
+        <v>683.4000244140625</v>
       </c>
       <c r="D16" t="n">
-        <v>524.5999755859375</v>
+        <v>615.2999877929688</v>
       </c>
       <c r="E16" t="n">
-        <v>539.9500122070312</v>
+        <v>634.7000122070312</v>
       </c>
       <c r="F16" t="n">
-        <v>539.9500122070312</v>
+        <v>634.7000122070312</v>
       </c>
       <c r="G16" t="n">
-        <v>1410560</v>
+        <v>2404784</v>
       </c>
       <c r="H16" t="n">
         <v>2022</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B17" t="n">
-        <v>532</v>
+        <v>630</v>
       </c>
       <c r="C17" t="n">
-        <v>588</v>
+        <v>635.1500244140625</v>
       </c>
       <c r="D17" t="n">
-        <v>475</v>
+        <v>524.5999755859375</v>
       </c>
       <c r="E17" t="n">
-        <v>573.1500244140625</v>
+        <v>539.9500122070312</v>
       </c>
       <c r="F17" t="n">
-        <v>573.1500244140625</v>
+        <v>539.9500122070312</v>
       </c>
       <c r="G17" t="n">
-        <v>1346570</v>
+        <v>1410560</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B18" t="n">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C18" t="n">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D18" t="n">
-        <v>541.25</v>
+        <v>475</v>
       </c>
       <c r="E18" t="n">
-        <v>583.4000244140625</v>
+        <v>573.1500244140625</v>
       </c>
       <c r="F18" t="n">
-        <v>583.4000244140625</v>
+        <v>573.1500244140625</v>
       </c>
       <c r="G18" t="n">
-        <v>1852356</v>
+        <v>1346570</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B19" t="n">
-        <v>583.5</v>
+        <v>572</v>
       </c>
       <c r="C19" t="n">
-        <v>650.9000244140625</v>
+        <v>596</v>
       </c>
       <c r="D19" t="n">
-        <v>542</v>
+        <v>541.25</v>
       </c>
       <c r="E19" t="n">
-        <v>611</v>
+        <v>583.4000244140625</v>
       </c>
       <c r="F19" t="n">
-        <v>611</v>
+        <v>583.4000244140625</v>
       </c>
       <c r="G19" t="n">
-        <v>3129423</v>
+        <v>1852356</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B20" t="n">
-        <v>616.8499755859375</v>
+        <v>583.5</v>
       </c>
       <c r="C20" t="n">
-        <v>740</v>
+        <v>650.9000244140625</v>
       </c>
       <c r="D20" t="n">
-        <v>609.6500244140625</v>
+        <v>542</v>
       </c>
       <c r="E20" t="n">
-        <v>649.4000244140625</v>
+        <v>611</v>
       </c>
       <c r="F20" t="n">
-        <v>649.4000244140625</v>
+        <v>611</v>
       </c>
       <c r="G20" t="n">
-        <v>4903669</v>
+        <v>3129423</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B21" t="n">
-        <v>647.9500122070312</v>
+        <v>616.8499755859375</v>
       </c>
       <c r="C21" t="n">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="D21" t="n">
-        <v>627.3499755859375</v>
+        <v>609.6500244140625</v>
       </c>
       <c r="E21" t="n">
-        <v>639.7999877929688</v>
+        <v>649.4000244140625</v>
       </c>
       <c r="F21" t="n">
-        <v>639.7999877929688</v>
+        <v>649.4000244140625</v>
       </c>
       <c r="G21" t="n">
-        <v>1605308</v>
+        <v>4903669</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B22" t="n">
-        <v>640.5</v>
+        <v>647.9500122070312</v>
       </c>
       <c r="C22" t="n">
-        <v>658.75</v>
+        <v>700</v>
       </c>
       <c r="D22" t="n">
-        <v>596.7999877929688</v>
+        <v>627.3499755859375</v>
       </c>
       <c r="E22" t="n">
-        <v>609.2999877929688</v>
+        <v>639.7999877929688</v>
       </c>
       <c r="F22" t="n">
-        <v>609.2999877929688</v>
+        <v>639.7999877929688</v>
       </c>
       <c r="G22" t="n">
-        <v>1556670</v>
+        <v>1605308</v>
       </c>
       <c r="H22" t="n">
         <v>2022</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B23" t="n">
-        <v>615</v>
+        <v>640.5</v>
       </c>
       <c r="C23" t="n">
-        <v>620.9500122070312</v>
+        <v>658.75</v>
       </c>
       <c r="D23" t="n">
-        <v>503.25</v>
+        <v>596.7999877929688</v>
       </c>
       <c r="E23" t="n">
-        <v>506.3999938964844</v>
+        <v>609.2999877929688</v>
       </c>
       <c r="F23" t="n">
-        <v>506.3999938964844</v>
+        <v>609.2999877929688</v>
       </c>
       <c r="G23" t="n">
-        <v>3279857</v>
+        <v>1556670</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B24" t="n">
-        <v>509</v>
+        <v>615</v>
       </c>
       <c r="C24" t="n">
-        <v>574</v>
+        <v>620.9500122070312</v>
       </c>
       <c r="D24" t="n">
-        <v>490.8999938964844</v>
+        <v>503.25</v>
       </c>
       <c r="E24" t="n">
-        <v>510.7000122070312</v>
+        <v>506.3999938964844</v>
       </c>
       <c r="F24" t="n">
-        <v>510.7000122070312</v>
+        <v>506.3999938964844</v>
       </c>
       <c r="G24" t="n">
-        <v>4494557</v>
+        <v>3279857</v>
       </c>
       <c r="H24" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,89 +1732,89 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B25" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C25" t="n">
-        <v>534.9000244140625</v>
+        <v>574</v>
       </c>
       <c r="D25" t="n">
-        <v>402</v>
+        <v>490.8999938964844</v>
       </c>
       <c r="E25" t="n">
-        <v>409.2999877929688</v>
+        <v>510.7000122070312</v>
       </c>
       <c r="F25" t="n">
-        <v>409.2999877929688</v>
+        <v>510.7000122070312</v>
       </c>
       <c r="G25" t="n">
-        <v>2856567</v>
+        <v>4494557</v>
       </c>
       <c r="H25" t="n">
         <v>2023</v>
       </c>
       <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>52</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B26" t="n">
-        <v>409.5499877929688</v>
+        <v>510</v>
       </c>
       <c r="C26" t="n">
-        <v>428.8999938964844</v>
+        <v>534.9000244140625</v>
       </c>
       <c r="D26" t="n">
-        <v>353.1000061035156</v>
+        <v>402</v>
       </c>
       <c r="E26" t="n">
-        <v>375</v>
+        <v>409.2999877929688</v>
       </c>
       <c r="F26" t="n">
-        <v>375</v>
+        <v>409.2999877929688</v>
       </c>
       <c r="G26" t="n">
-        <v>7136803</v>
+        <v>2856567</v>
       </c>
       <c r="H26" t="n">
         <v>2023</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B27" t="n">
-        <v>384</v>
+        <v>409.5499877929688</v>
       </c>
       <c r="C27" t="n">
-        <v>418.4500122070312</v>
+        <v>428.8999938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>362.3500061035156</v>
+        <v>353.1000061035156</v>
       </c>
       <c r="E27" t="n">
-        <v>414.75</v>
+        <v>375</v>
       </c>
       <c r="F27" t="n">
-        <v>414.75</v>
+        <v>375</v>
       </c>
       <c r="G27" t="n">
-        <v>7414515</v>
+        <v>7136803</v>
       </c>
       <c r="H27" t="n">
         <v>2023</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B28" t="n">
+        <v>384</v>
+      </c>
+      <c r="C28" t="n">
+        <v>418.4500122070312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>362.3500061035156</v>
+      </c>
+      <c r="E28" t="n">
         <v>414.75</v>
       </c>
-      <c r="C28" t="n">
-        <v>507.3999938964844</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
         <v>414.75</v>
       </c>
-      <c r="E28" t="n">
-        <v>423.25</v>
-      </c>
-      <c r="F28" t="n">
-        <v>423.25</v>
-      </c>
       <c r="G28" t="n">
-        <v>8115386</v>
+        <v>7414515</v>
       </c>
       <c r="H28" t="n">
         <v>2023</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B29" t="n">
-        <v>426.6000061035156</v>
+        <v>414.75</v>
       </c>
       <c r="C29" t="n">
-        <v>459.2000122070312</v>
+        <v>507.3999938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>425</v>
+        <v>414.75</v>
       </c>
       <c r="E29" t="n">
-        <v>435.8500061035156</v>
+        <v>423.25</v>
       </c>
       <c r="F29" t="n">
-        <v>435.8500061035156</v>
+        <v>423.25</v>
       </c>
       <c r="G29" t="n">
-        <v>4316182</v>
+        <v>8115386</v>
       </c>
       <c r="H29" t="n">
         <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B30" t="n">
-        <v>437.8500061035156</v>
+        <v>426.6000061035156</v>
       </c>
       <c r="C30" t="n">
-        <v>495.8999938964844</v>
+        <v>459.2000122070312</v>
       </c>
       <c r="D30" t="n">
-        <v>435.1000061035156</v>
+        <v>425</v>
       </c>
       <c r="E30" t="n">
-        <v>487.25</v>
+        <v>435.8500061035156</v>
       </c>
       <c r="F30" t="n">
-        <v>487.25</v>
+        <v>435.8500061035156</v>
       </c>
       <c r="G30" t="n">
-        <v>5373825</v>
+        <v>4316182</v>
       </c>
       <c r="H30" t="n">
         <v>2023</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B31" t="n">
-        <v>493.5</v>
+        <v>437.8500061035156</v>
       </c>
       <c r="C31" t="n">
-        <v>559.4000244140625</v>
+        <v>495.8999938964844</v>
       </c>
       <c r="D31" t="n">
-        <v>471.9500122070312</v>
+        <v>435.1000061035156</v>
       </c>
       <c r="E31" t="n">
-        <v>529.25</v>
+        <v>487.25</v>
       </c>
       <c r="F31" t="n">
-        <v>529.25</v>
+        <v>487.25</v>
       </c>
       <c r="G31" t="n">
-        <v>4331425</v>
+        <v>5373825</v>
       </c>
       <c r="H31" t="n">
         <v>2023</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B32" t="n">
-        <v>529.9500122070312</v>
+        <v>493.5</v>
       </c>
       <c r="C32" t="n">
-        <v>565</v>
+        <v>559.4000244140625</v>
       </c>
       <c r="D32" t="n">
-        <v>508</v>
+        <v>471.9500122070312</v>
       </c>
       <c r="E32" t="n">
-        <v>546.5499877929688</v>
+        <v>529.25</v>
       </c>
       <c r="F32" t="n">
-        <v>546.5499877929688</v>
+        <v>529.25</v>
       </c>
       <c r="G32" t="n">
-        <v>3524196</v>
+        <v>4331425</v>
       </c>
       <c r="H32" t="n">
         <v>2023</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B33" t="n">
+        <v>529.9500122070312</v>
+      </c>
+      <c r="C33" t="n">
+        <v>565</v>
+      </c>
+      <c r="D33" t="n">
+        <v>508</v>
+      </c>
+      <c r="E33" t="n">
         <v>546.5499877929688</v>
       </c>
-      <c r="C33" t="n">
-        <v>579</v>
-      </c>
-      <c r="D33" t="n">
-        <v>491.1000061035156</v>
-      </c>
-      <c r="E33" t="n">
-        <v>513</v>
-      </c>
       <c r="F33" t="n">
-        <v>513</v>
+        <v>546.5499877929688</v>
       </c>
       <c r="G33" t="n">
-        <v>2733056</v>
+        <v>3524196</v>
       </c>
       <c r="H33" t="n">
         <v>2023</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B34" t="n">
-        <v>510</v>
+        <v>546.5499877929688</v>
       </c>
       <c r="C34" t="n">
-        <v>537.75</v>
+        <v>579</v>
       </c>
       <c r="D34" t="n">
-        <v>458.5499877929688</v>
+        <v>491.1000061035156</v>
       </c>
       <c r="E34" t="n">
-        <v>480.25</v>
+        <v>513</v>
       </c>
       <c r="F34" t="n">
-        <v>480.25</v>
+        <v>513</v>
       </c>
       <c r="G34" t="n">
-        <v>3184712</v>
+        <v>2733056</v>
       </c>
       <c r="H34" t="n">
         <v>2023</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B35" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="C35" t="n">
-        <v>494</v>
+        <v>537.75</v>
       </c>
       <c r="D35" t="n">
-        <v>449.0499877929688</v>
+        <v>458.5499877929688</v>
       </c>
       <c r="E35" t="n">
-        <v>449.9500122070312</v>
+        <v>480.25</v>
       </c>
       <c r="F35" t="n">
-        <v>449.9500122070312</v>
+        <v>480.25</v>
       </c>
       <c r="G35" t="n">
-        <v>1682612</v>
+        <v>3184712</v>
       </c>
       <c r="H35" t="n">
         <v>2023</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B36" t="n">
-        <v>450.5</v>
+        <v>487</v>
       </c>
       <c r="C36" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D36" t="n">
-        <v>435.1000061035156</v>
+        <v>449.0499877929688</v>
       </c>
       <c r="E36" t="n">
-        <v>443.4500122070312</v>
+        <v>449.9500122070312</v>
       </c>
       <c r="F36" t="n">
-        <v>443.4500122070312</v>
+        <v>449.9500122070312</v>
       </c>
       <c r="G36" t="n">
-        <v>2085246</v>
+        <v>1682612</v>
       </c>
       <c r="H36" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B37" t="n">
-        <v>446</v>
+        <v>450.5</v>
       </c>
       <c r="C37" t="n">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="D37" t="n">
-        <v>423</v>
+        <v>435.1000061035156</v>
       </c>
       <c r="E37" t="n">
-        <v>489</v>
+        <v>443.4500122070312</v>
       </c>
       <c r="F37" t="n">
-        <v>489</v>
+        <v>443.4500122070312</v>
       </c>
       <c r="G37" t="n">
-        <v>3707666</v>
+        <v>2085246</v>
       </c>
       <c r="H37" t="n">
         <v>2024</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2429,36 +2421,36 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B38" t="n">
-        <v>491.3999938964844</v>
+        <v>446</v>
       </c>
       <c r="C38" t="n">
-        <v>506.9500122070312</v>
+        <v>515</v>
       </c>
       <c r="D38" t="n">
-        <v>409.5</v>
+        <v>423</v>
       </c>
       <c r="E38" t="n">
-        <v>419.5499877929688</v>
+        <v>489</v>
       </c>
       <c r="F38" t="n">
-        <v>419.5499877929688</v>
+        <v>489</v>
       </c>
       <c r="G38" t="n">
-        <v>2945000</v>
+        <v>3707666</v>
       </c>
       <c r="H38" t="n">
         <v>2024</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,45 +2465,45 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B39" t="n">
-        <v>423.9500122070312</v>
+        <v>491.3999938964844</v>
       </c>
       <c r="C39" t="n">
-        <v>467.2999877929688</v>
+        <v>506.9500122070312</v>
       </c>
       <c r="D39" t="n">
-        <v>422.0499877929688</v>
+        <v>409.5</v>
       </c>
       <c r="E39" t="n">
-        <v>454.75</v>
+        <v>419.5499877929688</v>
       </c>
       <c r="F39" t="n">
-        <v>454.75</v>
+        <v>419.5499877929688</v>
       </c>
       <c r="G39" t="n">
-        <v>2315594</v>
+        <v>2945000</v>
       </c>
       <c r="H39" t="n">
         <v>2024</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B40" t="n">
+        <v>423.9500122070312</v>
+      </c>
+      <c r="C40" t="n">
+        <v>467.2999877929688</v>
+      </c>
+      <c r="D40" t="n">
+        <v>422.0499877929688</v>
+      </c>
+      <c r="E40" t="n">
         <v>454.75</v>
       </c>
-      <c r="C40" t="n">
-        <v>517.9500122070312</v>
-      </c>
-      <c r="D40" t="n">
-        <v>437</v>
-      </c>
-      <c r="E40" t="n">
-        <v>480.7000122070312</v>
-      </c>
       <c r="F40" t="n">
-        <v>480.7000122070312</v>
+        <v>454.75</v>
       </c>
       <c r="G40" t="n">
-        <v>2273497</v>
+        <v>2315594</v>
       </c>
       <c r="H40" t="n">
         <v>2024</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,56 +2585,514 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B41" t="n">
-        <v>486.9500122070312</v>
+        <v>454.75</v>
       </c>
       <c r="C41" t="n">
-        <v>548.6500244140625</v>
+        <v>517.9500122070312</v>
       </c>
       <c r="D41" t="n">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E41" t="n">
-        <v>536.9000244140625</v>
+        <v>480.7000122070312</v>
       </c>
       <c r="F41" t="n">
-        <v>536.9000244140625</v>
+        <v>480.7000122070312</v>
       </c>
       <c r="G41" t="n">
-        <v>1532315</v>
+        <v>2273497</v>
       </c>
       <c r="H41" t="n">
         <v>2024</v>
       </c>
       <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>18</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B42" t="n">
+        <v>486.9500122070312</v>
+      </c>
+      <c r="C42" t="n">
+        <v>548.6500244140625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>445</v>
+      </c>
+      <c r="E42" t="n">
+        <v>536.9000244140625</v>
+      </c>
+      <c r="F42" t="n">
+        <v>536.9000244140625</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1532315</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
         <v>6</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>22</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B43" t="n">
+        <v>594.2983144784903</v>
+      </c>
+      <c r="C43" t="n">
+        <v>654.4261351302266</v>
+      </c>
+      <c r="D43" t="n">
+        <v>560.6945217728809</v>
+      </c>
+      <c r="E43" t="n">
+        <v>614.2412109375</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>3765556</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>27</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B44" t="n">
+        <v>618.229789612157</v>
+      </c>
+      <c r="C44" t="n">
+        <v>847.5730986618281</v>
+      </c>
+      <c r="D44" t="n">
+        <v>554.4623660759509</v>
+      </c>
+      <c r="E44" t="n">
+        <v>838.5489501953125</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>7557288</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>31</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B45" t="n">
+        <v>842.6372399565893</v>
+      </c>
+      <c r="C45" t="n">
+        <v>964.7376385238538</v>
+      </c>
+      <c r="D45" t="n">
+        <v>782.7587041252973</v>
+      </c>
+      <c r="E45" t="n">
+        <v>888.90478515625</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>3008974</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>35</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B46" t="n">
+        <v>891.4000244140625</v>
+      </c>
+      <c r="C46" t="n">
+        <v>939</v>
+      </c>
+      <c r="D46" t="n">
+        <v>745.25</v>
+      </c>
+      <c r="E46" t="n">
+        <v>775.1500244140625</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>2989893</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B47" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="C47" t="n">
+        <v>828</v>
+      </c>
+      <c r="D47" t="n">
+        <v>704.25</v>
+      </c>
+      <c r="E47" t="n">
+        <v>822.5999755859375</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1569300</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>44</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B48" t="n">
+        <v>822.5999755859375</v>
+      </c>
+      <c r="C48" t="n">
+        <v>975</v>
+      </c>
+      <c r="D48" t="n">
+        <v>765.0499877929688</v>
+      </c>
+      <c r="E48" t="n">
+        <v>875.2000122070312</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>2513062</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>48</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B49" t="n">
+        <v>874.2999877929688</v>
+      </c>
+      <c r="C49" t="n">
+        <v>975.4000244140625</v>
+      </c>
+      <c r="D49" t="n">
+        <v>706.0499877929688</v>
+      </c>
+      <c r="E49" t="n">
+        <v>797.4000244140625</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>3297368</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B50" t="n">
+        <v>797.4000244140625</v>
+      </c>
+      <c r="C50" t="n">
+        <v>870</v>
+      </c>
+      <c r="D50" t="n">
+        <v>675</v>
+      </c>
+      <c r="E50" t="n">
+        <v>714.9000244140625</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>2868201</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B51" t="n">
+        <v>721.4500122070312</v>
+      </c>
+      <c r="C51" t="n">
+        <v>820</v>
+      </c>
+      <c r="D51" t="n">
+        <v>667.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>704.5499877929688</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>1034060</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
